--- a/common/template/document/tarif_statement.xlsx
+++ b/common/template/document/tarif_statement.xlsx
@@ -623,20 +623,20 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,10 +865,10 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,18 +926,18 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -1023,10 +1023,10 @@
       <c r="F6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="60" t="s">
         <v>67</v>
       </c>
       <c r="I6" s="23" t="s">
@@ -1072,7 +1072,7 @@
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-4))+INDIRECT(ADDRESS(ROW(),COLUMN()-3))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="59" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1088,45 +1088,45 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39">
-        <f ca="1">SUM( I7        : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( I7           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + I6</f>
         <v>0</v>
       </c>
       <c r="J7" s="40">
-        <f ca="1">SUM( J7        : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( J7           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + J6</f>
         <v>0</v>
       </c>
       <c r="K7" s="32">
-        <f ca="1">SUM( K7       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( K7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + K6</f>
         <v>0</v>
       </c>
       <c r="L7" s="32">
-        <f ca="1">SUM( L7       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( L7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + L6</f>
         <v>0</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
       <c r="O7" s="41" t="e">
-        <f ca="1">SUM( O7       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( O7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + O6</f>
         <v>#VALUE!</v>
       </c>
       <c r="P7" s="42" t="e">
-        <f ca="1">SUM( P7       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( P7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + P6</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q7" s="43" t="e">
-        <f ca="1">SUM( Q7       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( Q7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + Q6</f>
         <v>#VALUE!</v>
       </c>
       <c r="R7" s="43">
-        <f ca="1">SUM( R7       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( R7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + R6</f>
         <v>0</v>
       </c>
       <c r="S7" s="43" t="e">
-        <f ca="1">SUM( S7       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( S7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + S6</f>
         <v>#VALUE!</v>
       </c>
       <c r="T7" s="43" t="e">
-        <f ca="1">SUM( T7       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( T7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + T6</f>
         <v>#VALUE!</v>
       </c>
       <c r="U7" s="44"/>
@@ -1190,11 +1190,11 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12">
-        <f ca="1">SUMIFS( J6      : INDIRECT(ADDRESS(ROW()-5,COLUMN()+5)), E6       : INDIRECT(ADDRESS(ROW()-5,COLUMN())),"*СК*")</f>
+        <f ca="1">SUMIFS( J6        : INDIRECT(ADDRESS(ROW()-5,COLUMN()+5)), E6         : INDIRECT(ADDRESS(ROW()-5,COLUMN())),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F11" s="12">
-        <f ca="1">SUMIFS( L6       : INDIRECT(ADDRESS(ROW()-5,COLUMN()+6)), E6        : INDIRECT(ADDRESS(ROW()-5,COLUMN()-1)),"*СК*")</f>
+        <f ca="1">SUMIFS( L6         : INDIRECT(ADDRESS(ROW()-5,COLUMN()+6)), E6          : INDIRECT(ADDRESS(ROW()-5,COLUMN()-1)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="G11" s="19">
@@ -1220,11 +1220,11 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12">
-        <f ca="1">SUMIFS( J6      : INDIRECT(ADDRESS(ROW()-6,COLUMN()+5)), E6       : INDIRECT(ADDRESS(ROW()-6,COLUMN())),"*ПК*")</f>
+        <f ca="1">SUMIFS( J6        : INDIRECT(ADDRESS(ROW()-6,COLUMN()+5)), E6         : INDIRECT(ADDRESS(ROW()-6,COLUMN())),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F12" s="12">
-        <f ca="1">SUMIFS( L6        : INDIRECT(ADDRESS(ROW()-6,COLUMN()+6)), E6         : INDIRECT(ADDRESS(ROW()-6,COLUMN()-1)),"*ПК*")</f>
+        <f ca="1">SUMIFS( L6          : INDIRECT(ADDRESS(ROW()-6,COLUMN()+6)), E6           : INDIRECT(ADDRESS(ROW()-6,COLUMN()-1)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="G12" s="19">
@@ -1256,11 +1256,11 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12">
-        <f ca="1">SUMIFS( J6      : INDIRECT(ADDRESS(ROW()-7,COLUMN()+5)), E6       : INDIRECT(ADDRESS(ROW()-7,COLUMN())),"*ВК*")</f>
+        <f ca="1">SUMIFS( J6        : INDIRECT(ADDRESS(ROW()-7,COLUMN()+5)), E6         : INDIRECT(ADDRESS(ROW()-7,COLUMN())),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F13" s="12">
-        <f ca="1">SUMIFS( L6        : INDIRECT(ADDRESS(ROW()-7,COLUMN()+6)), E6         : INDIRECT(ADDRESS(ROW()-7,COLUMN()-1)),"*ВК*")</f>
+        <f ca="1">SUMIFS( L6          : INDIRECT(ADDRESS(ROW()-7,COLUMN()+6)), E6           : INDIRECT(ADDRESS(ROW()-7,COLUMN()-1)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="G13" s="19">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10">
-        <f ca="1">SUMIFS( I6     : INDIRECT(ADDRESS(ROW()-10,COLUMN()+4)), E6      : INDIRECT(ADDRESS(ROW()-10,COLUMN())),"*СК*")</f>
+        <f ca="1">SUMIFS( I6       : INDIRECT(ADDRESS(ROW()-10,COLUMN()+4)), E6        : INDIRECT(ADDRESS(ROW()-10,COLUMN())),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F16" s="10">
-        <f ca="1">SUMIFS( K6        : INDIRECT(ADDRESS(ROW()-10,COLUMN()+5)), E6         : INDIRECT(ADDRESS(ROW()-10,COLUMN()-1)),"*СК*")</f>
+        <f ca="1">SUMIFS( K6          : INDIRECT(ADDRESS(ROW()-10,COLUMN()+5)), E6           : INDIRECT(ADDRESS(ROW()-10,COLUMN()-1)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="G16" s="19">
@@ -1358,11 +1358,11 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10">
-        <f ca="1">SUMIFS( I6       : INDIRECT(ADDRESS(ROW()-11,COLUMN()+4)), E6        : INDIRECT(ADDRESS(ROW()-11,COLUMN())),"*ПК*")</f>
+        <f ca="1">SUMIFS( I6         : INDIRECT(ADDRESS(ROW()-11,COLUMN()+4)), E6          : INDIRECT(ADDRESS(ROW()-11,COLUMN())),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F17" s="10">
-        <f ca="1">SUMIFS( K6         : INDIRECT(ADDRESS(ROW()-11,COLUMN()+5)), E6          : INDIRECT(ADDRESS(ROW()-11,COLUMN()-1)),"*ПК*")</f>
+        <f ca="1">SUMIFS( K6           : INDIRECT(ADDRESS(ROW()-11,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-11,COLUMN()-1)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="G17" s="19">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10">
-        <f ca="1">SUMIFS( I6       : INDIRECT(ADDRESS(ROW()-12,COLUMN()+4)), E6        : INDIRECT(ADDRESS(ROW()-12,COLUMN())),"*ВК*")</f>
+        <f ca="1">SUMIFS( I6         : INDIRECT(ADDRESS(ROW()-12,COLUMN()+4)), E6          : INDIRECT(ADDRESS(ROW()-12,COLUMN())),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F18" s="10">
-        <f ca="1">SUMIFS( K6         : INDIRECT(ADDRESS(ROW()-12,COLUMN()+5)), E6          : INDIRECT(ADDRESS(ROW()-12,COLUMN()-1)),"*ВК*")</f>
+        <f ca="1">SUMIFS( K6           : INDIRECT(ADDRESS(ROW()-12,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-12,COLUMN()-1)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="G18" s="19">
@@ -1446,7 +1446,7 @@
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M7:T7 R6 T6" evalError="1"/>
+    <ignoredError sqref="M7:N7 R6 T6" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1462,7 +1462,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,10 +1562,10 @@
       <c r="D9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="62" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="25" t="s">
@@ -1591,7 +1591,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M9" s="22" t="e">
-        <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-1))+INDIRECT(ADDRESS(ROW(),COLUMN()+1))</f>
+        <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-1))+INDIRECT(ADDRESS(ROW(),COLUMN()-2))+INDIRECT(ADDRESS(ROW(),COLUMN()+1))</f>
         <v>#VALUE!</v>
       </c>
       <c r="N9" s="13"/>
@@ -1606,23 +1606,23 @@
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
       <c r="G10" s="45">
-        <f ca="1">SUM( G10      : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( G10         : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + G9</f>
         <v>0</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="45">
-        <f ca="1">SUM( I10       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( I10          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + I9</f>
         <v>0</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
       <c r="L10" s="45"/>
       <c r="M10" s="56" t="e">
-        <f ca="1">SUM( M10      : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( M10          : INDIRECT(ADDRESS(ROW()-2,COLUMN())) ) + M9</f>
         <v>#VALUE!</v>
       </c>
       <c r="N10" s="56">
-        <f ca="1">SUM( N10       : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( N10         : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="17">
-        <f ca="1">SUMIFS( I9                : INDIRECT(ADDRESS(ROW()-4,COLUMN()+4)), C9                 : INDIRECT(ADDRESS(ROW()-4,COLUMN()-2)),"*СК*")</f>
+        <f ca="1">SUMIFS( I9                  : INDIRECT(ADDRESS(ROW()-4,COLUMN()+4)), C9                   : INDIRECT(ADDRESS(ROW()-4,COLUMN()-2)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F13" s="20">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="17">
-        <f ca="1">SUMIFS( I9                : INDIRECT(ADDRESS(ROW()-5,COLUMN()+4)), C9                 : INDIRECT(ADDRESS(ROW()-5,COLUMN()-2)),"*ПК*")</f>
+        <f ca="1">SUMIFS( I9                  : INDIRECT(ADDRESS(ROW()-5,COLUMN()+4)), C9                   : INDIRECT(ADDRESS(ROW()-5,COLUMN()-2)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F14" s="20">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="17">
-        <f ca="1">SUMIFS( I9                : INDIRECT(ADDRESS(ROW()-6,COLUMN()+4)), C9                 : INDIRECT(ADDRESS(ROW()-6,COLUMN()-2)),"*ВК*")</f>
+        <f ca="1">SUMIFS( I9                  : INDIRECT(ADDRESS(ROW()-6,COLUMN()+4)), C9                   : INDIRECT(ADDRESS(ROW()-6,COLUMN()-2)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F15" s="20">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="18">
-        <f ca="1">SUMIFS( G9                  : INDIRECT(ADDRESS(ROW()-9,COLUMN()+2)), C9                   : INDIRECT(ADDRESS(ROW()-9,COLUMN()-2)),"*СК*")</f>
+        <f ca="1">SUMIFS( G9                    : INDIRECT(ADDRESS(ROW()-9,COLUMN()+2)), C9                     : INDIRECT(ADDRESS(ROW()-9,COLUMN()-2)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F18" s="20">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="18">
-        <f ca="1">SUMIFS( G9                    : INDIRECT(ADDRESS(ROW()-10,COLUMN()+2)), C9                     : INDIRECT(ADDRESS(ROW()-10,COLUMN()-2)),"*ПК*")</f>
+        <f ca="1">SUMIFS( G9                      : INDIRECT(ADDRESS(ROW()-10,COLUMN()+2)), C9                       : INDIRECT(ADDRESS(ROW()-10,COLUMN()-2)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F19" s="20">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="18">
-        <f ca="1">SUMIFS( G9                    : INDIRECT(ADDRESS(ROW()-11,COLUMN()+2)), C9                     : INDIRECT(ADDRESS(ROW()-11,COLUMN()-2)),"*ВК*")</f>
+        <f ca="1">SUMIFS( G9                      : INDIRECT(ADDRESS(ROW()-11,COLUMN()+2)), C9                       : INDIRECT(ADDRESS(ROW()-11,COLUMN()-2)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F20" s="20">
@@ -1805,7 +1805,7 @@
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M9:M10 J9:L9 H9" evalError="1"/>
+    <ignoredError sqref="J9:L9 H9" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/common/template/document/tarif_statement.xlsx
+++ b/common/template/document/tarif_statement.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">бюджет!$A$5:$U$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">внебюджет!$A$8:$M$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">внебюджет!$A$8:$O$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>№</t>
   </si>
@@ -200,9 +200,6 @@
     <t> Тарификационная ведомость ГБУДО г. Москвы "ДШИ им. И.Ф.Стравинского" на [doc.plan_year] уч. г.</t>
   </si>
   <si>
-    <t>[a.item;block=tbs:row].</t>
-  </si>
-  <si>
     <t>[a.stake_slug]</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>ИТОГО:</t>
+  </si>
+  <si>
+    <t>[a.item;block=tbs:row]</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -626,17 +626,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,10 +862,10 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,18 +923,18 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -1006,40 +1003,40 @@
     </row>
     <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="60" t="s">
-        <v>67</v>
-      </c>
       <c r="I6" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="L6" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="M6" s="26" t="e">
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-6))/72*INDIRECT(ADDRESS(ROW(),COLUMN()-4))*4</f>
@@ -1062,7 +1059,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S6" s="26" t="e">
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-4))+INDIRECT(ADDRESS(ROW(),COLUMN()-1))</f>
@@ -1073,7 +1070,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="U6" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1088,45 +1085,45 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39">
-        <f ca="1">SUM( I7           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + I6</f>
+        <f ca="1">SUM( I7              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + I6</f>
         <v>0</v>
       </c>
       <c r="J7" s="40">
-        <f ca="1">SUM( J7           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + J6</f>
+        <f ca="1">SUM( J7              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + J6</f>
         <v>0</v>
       </c>
       <c r="K7" s="32">
-        <f ca="1">SUM( K7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + K6</f>
+        <f ca="1">SUM( K7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + K6</f>
         <v>0</v>
       </c>
       <c r="L7" s="32">
-        <f ca="1">SUM( L7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + L6</f>
+        <f ca="1">SUM( L7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + L6</f>
         <v>0</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
       <c r="O7" s="41" t="e">
-        <f ca="1">SUM( O7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + O6</f>
+        <f ca="1">SUM( O7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + O6</f>
         <v>#VALUE!</v>
       </c>
       <c r="P7" s="42" t="e">
-        <f ca="1">SUM( P7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + P6</f>
+        <f ca="1">SUM( P7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + P6</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q7" s="43" t="e">
-        <f ca="1">SUM( Q7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + Q6</f>
+        <f ca="1">SUM( Q7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + Q6</f>
         <v>#VALUE!</v>
       </c>
       <c r="R7" s="43">
-        <f ca="1">SUM( R7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + R6</f>
+        <f ca="1">SUM( R7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + R6</f>
         <v>0</v>
       </c>
       <c r="S7" s="43" t="e">
-        <f ca="1">SUM( S7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + S6</f>
+        <f ca="1">SUM( S7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + S6</f>
         <v>#VALUE!</v>
       </c>
       <c r="T7" s="43" t="e">
-        <f ca="1">SUM( T7          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + T6</f>
+        <f ca="1">SUM( T7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + T6</f>
         <v>#VALUE!</v>
       </c>
       <c r="U7" s="44"/>
@@ -1190,11 +1187,11 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12">
-        <f ca="1">SUMIFS( J6        : INDIRECT(ADDRESS(ROW()-5,COLUMN()+5)), E6         : INDIRECT(ADDRESS(ROW()-5,COLUMN())),"*СК*")</f>
+        <f ca="1">SUMIFS( J6           : INDIRECT(ADDRESS(ROW()-5,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-5,COLUMN())),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F11" s="12">
-        <f ca="1">SUMIFS( L6         : INDIRECT(ADDRESS(ROW()-5,COLUMN()+6)), E6          : INDIRECT(ADDRESS(ROW()-5,COLUMN()-1)),"*СК*")</f>
+        <f ca="1">SUMIFS( L6            : INDIRECT(ADDRESS(ROW()-5,COLUMN()+6)), E6             : INDIRECT(ADDRESS(ROW()-5,COLUMN()-1)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="G11" s="19">
@@ -1220,11 +1217,11 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12">
-        <f ca="1">SUMIFS( J6        : INDIRECT(ADDRESS(ROW()-6,COLUMN()+5)), E6         : INDIRECT(ADDRESS(ROW()-6,COLUMN())),"*ПК*")</f>
+        <f ca="1">SUMIFS( J6           : INDIRECT(ADDRESS(ROW()-6,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-6,COLUMN())),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F12" s="12">
-        <f ca="1">SUMIFS( L6          : INDIRECT(ADDRESS(ROW()-6,COLUMN()+6)), E6           : INDIRECT(ADDRESS(ROW()-6,COLUMN()-1)),"*ПК*")</f>
+        <f ca="1">SUMIFS( L6             : INDIRECT(ADDRESS(ROW()-6,COLUMN()+6)), E6              : INDIRECT(ADDRESS(ROW()-6,COLUMN()-1)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="G12" s="19">
@@ -1256,11 +1253,11 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12">
-        <f ca="1">SUMIFS( J6        : INDIRECT(ADDRESS(ROW()-7,COLUMN()+5)), E6         : INDIRECT(ADDRESS(ROW()-7,COLUMN())),"*ВК*")</f>
+        <f ca="1">SUMIFS( J6           : INDIRECT(ADDRESS(ROW()-7,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-7,COLUMN())),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F13" s="12">
-        <f ca="1">SUMIFS( L6          : INDIRECT(ADDRESS(ROW()-7,COLUMN()+6)), E6           : INDIRECT(ADDRESS(ROW()-7,COLUMN()-1)),"*ВК*")</f>
+        <f ca="1">SUMIFS( L6             : INDIRECT(ADDRESS(ROW()-7,COLUMN()+6)), E6              : INDIRECT(ADDRESS(ROW()-7,COLUMN()-1)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="G13" s="19">
@@ -1278,7 +1275,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="46"/>
@@ -1329,11 +1326,11 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10">
-        <f ca="1">SUMIFS( I6       : INDIRECT(ADDRESS(ROW()-10,COLUMN()+4)), E6        : INDIRECT(ADDRESS(ROW()-10,COLUMN())),"*СК*")</f>
+        <f ca="1">SUMIFS( I6          : INDIRECT(ADDRESS(ROW()-10,COLUMN()+4)), E6           : INDIRECT(ADDRESS(ROW()-10,COLUMN())),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F16" s="10">
-        <f ca="1">SUMIFS( K6          : INDIRECT(ADDRESS(ROW()-10,COLUMN()+5)), E6           : INDIRECT(ADDRESS(ROW()-10,COLUMN()-1)),"*СК*")</f>
+        <f ca="1">SUMIFS( K6             : INDIRECT(ADDRESS(ROW()-10,COLUMN()+5)), E6              : INDIRECT(ADDRESS(ROW()-10,COLUMN()-1)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="G16" s="19">
@@ -1358,11 +1355,11 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10">
-        <f ca="1">SUMIFS( I6         : INDIRECT(ADDRESS(ROW()-11,COLUMN()+4)), E6          : INDIRECT(ADDRESS(ROW()-11,COLUMN())),"*ПК*")</f>
+        <f ca="1">SUMIFS( I6            : INDIRECT(ADDRESS(ROW()-11,COLUMN()+4)), E6             : INDIRECT(ADDRESS(ROW()-11,COLUMN())),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F17" s="10">
-        <f ca="1">SUMIFS( K6           : INDIRECT(ADDRESS(ROW()-11,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-11,COLUMN()-1)),"*ПК*")</f>
+        <f ca="1">SUMIFS( K6              : INDIRECT(ADDRESS(ROW()-11,COLUMN()+5)), E6               : INDIRECT(ADDRESS(ROW()-11,COLUMN()-1)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="G17" s="19">
@@ -1387,11 +1384,11 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10">
-        <f ca="1">SUMIFS( I6         : INDIRECT(ADDRESS(ROW()-12,COLUMN()+4)), E6          : INDIRECT(ADDRESS(ROW()-12,COLUMN())),"*ВК*")</f>
+        <f ca="1">SUMIFS( I6            : INDIRECT(ADDRESS(ROW()-12,COLUMN()+4)), E6             : INDIRECT(ADDRESS(ROW()-12,COLUMN())),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F18" s="10">
-        <f ca="1">SUMIFS( K6           : INDIRECT(ADDRESS(ROW()-12,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-12,COLUMN()-1)),"*ВК*")</f>
+        <f ca="1">SUMIFS( K6              : INDIRECT(ADDRESS(ROW()-12,COLUMN()+5)), E6               : INDIRECT(ADDRESS(ROW()-12,COLUMN()-1)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="G18" s="19">
@@ -1409,7 +1406,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -1456,177 +1453,193 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J1" s="9" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L1" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F6" s="7" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H6" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="F8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="G8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="H8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="J8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="K8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="L8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="M8" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="N8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="O8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="P8" s="53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="61" t="s">
+      <c r="G9" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="15" t="e">
+      <c r="I9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="15" t="e">
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-1))*4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="22" t="e">
+      <c r="K9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="22" t="e">
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-1))*4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="22" t="e">
+      <c r="M9" s="22" t="e">
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-6))/72*INDIRECT(ADDRESS(ROW(),COLUMN()-4))*4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L9" s="22" t="e">
+      <c r="N9" s="22" t="e">
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-6))/96*INDIRECT(ADDRESS(ROW(),COLUMN()-2))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="22" t="e">
+      <c r="O9" s="22" t="e">
         <f ca="1">INDIRECT(ADDRESS(ROW(),COLUMN()-1))+INDIRECT(ADDRESS(ROW(),COLUMN()-2))+INDIRECT(ADDRESS(ROW(),COLUMN()+1))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
-      <c r="G10" s="45">
-        <f ca="1">SUM( G10         : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + G9</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="45"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="45">
-        <f ca="1">SUM( I10          : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + I9</f>
+        <f ca="1">SUM( I10            : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + I9</f>
         <v>0</v>
       </c>
       <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="45">
+        <f ca="1">SUM( K10             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + K9</f>
+        <v>0</v>
+      </c>
       <c r="L10" s="45"/>
-      <c r="M10" s="56" t="e">
-        <f ca="1">SUM( M10          : INDIRECT(ADDRESS(ROW()-2,COLUMN())) ) + M9</f>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="56" t="e">
+        <f ca="1">SUM( O10             : INDIRECT(ADDRESS(ROW()-2,COLUMN())) ) + O9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N10" s="56">
-        <f ca="1">SUM( N10         : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="56">
+        <f ca="1">SUM( P10            : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -1637,7 +1650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
@@ -1646,7 +1659,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="17">
-        <f ca="1">SUMIFS( I9                  : INDIRECT(ADDRESS(ROW()-4,COLUMN()+4)), C9                   : INDIRECT(ADDRESS(ROW()-4,COLUMN()-2)),"*СК*")</f>
+        <f ca="1">SUMIFS( K9                     : INDIRECT(ADDRESS(ROW()-4,COLUMN()+4)), E9                      : INDIRECT(ADDRESS(ROW()-4,COLUMN()-2)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F13" s="20">
@@ -1654,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
@@ -1663,7 +1676,7 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="17">
-        <f ca="1">SUMIFS( I9                  : INDIRECT(ADDRESS(ROW()-5,COLUMN()+4)), C9                   : INDIRECT(ADDRESS(ROW()-5,COLUMN()-2)),"*ПК*")</f>
+        <f ca="1">SUMIFS( K9                     : INDIRECT(ADDRESS(ROW()-5,COLUMN()+4)), E9                      : INDIRECT(ADDRESS(ROW()-5,COLUMN()-2)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F14" s="20">
@@ -1671,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1693,7 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="17">
-        <f ca="1">SUMIFS( I9                  : INDIRECT(ADDRESS(ROW()-6,COLUMN()+4)), C9                   : INDIRECT(ADDRESS(ROW()-6,COLUMN()-2)),"*ВК*")</f>
+        <f ca="1">SUMIFS( K9                     : INDIRECT(ADDRESS(ROW()-6,COLUMN()+4)), E9                      : INDIRECT(ADDRESS(ROW()-6,COLUMN()-2)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F15" s="20">
@@ -1688,9 +1701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -1703,14 +1716,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="18"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
@@ -1719,7 +1732,7 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="18">
-        <f ca="1">SUMIFS( G9                    : INDIRECT(ADDRESS(ROW()-9,COLUMN()+2)), C9                     : INDIRECT(ADDRESS(ROW()-9,COLUMN()-2)),"*СК*")</f>
+        <f ca="1">SUMIFS( I9                       : INDIRECT(ADDRESS(ROW()-9,COLUMN()+2)), E9                        : INDIRECT(ADDRESS(ROW()-9,COLUMN()-2)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F18" s="20">
@@ -1727,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
@@ -1736,7 +1749,7 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="18">
-        <f ca="1">SUMIFS( G9                      : INDIRECT(ADDRESS(ROW()-10,COLUMN()+2)), C9                       : INDIRECT(ADDRESS(ROW()-10,COLUMN()-2)),"*ПК*")</f>
+        <f ca="1">SUMIFS( I9                         : INDIRECT(ADDRESS(ROW()-10,COLUMN()+2)), E9                          : INDIRECT(ADDRESS(ROW()-10,COLUMN()-2)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F19" s="20">
@@ -1744,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
@@ -1753,7 +1766,7 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="18">
-        <f ca="1">SUMIFS( G9                      : INDIRECT(ADDRESS(ROW()-11,COLUMN()+2)), C9                       : INDIRECT(ADDRESS(ROW()-11,COLUMN()-2)),"*ВК*")</f>
+        <f ca="1">SUMIFS( I9                         : INDIRECT(ADDRESS(ROW()-11,COLUMN()+2)), E9                          : INDIRECT(ADDRESS(ROW()-11,COLUMN()-2)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F20" s="20">
@@ -1761,9 +1774,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -1776,36 +1789,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:M15"/>
+  <autoFilter ref="A8:O15"/>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J9:L9 H9" evalError="1"/>
+    <ignoredError sqref="L9:N9 J9" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/common/template/document/tarif_statement.xlsx
+++ b/common/template/document/tarif_statement.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="бюджет" sheetId="1" r:id="rId1"/>
@@ -629,11 +629,11 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,11 +861,11 @@
   </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,18 +923,18 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -1020,10 +1020,10 @@
       <c r="F6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="61" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="23" t="s">
@@ -1085,45 +1085,45 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39">
-        <f ca="1">SUM( I7              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + I6</f>
+        <f ca="1">SUM( I6                 : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="J7" s="40">
-        <f ca="1">SUM( J7              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + J6</f>
+        <f ca="1">SUM( J6                 : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="K7" s="32">
-        <f ca="1">SUM( K7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + K6</f>
+        <f ca="1">SUM( K6                : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="L7" s="32">
-        <f ca="1">SUM( L7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + L6</f>
+        <f ca="1">SUM( L6               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
       <c r="O7" s="41" t="e">
-        <f ca="1">SUM( O7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + O6</f>
+        <f ca="1">SUM( O6                : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>#VALUE!</v>
       </c>
       <c r="P7" s="42" t="e">
-        <f ca="1">SUM( P7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + P6</f>
+        <f ca="1">SUM( P6               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q7" s="43" t="e">
-        <f ca="1">SUM( Q7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + Q6</f>
+        <f ca="1">SUM( Q6                : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>#VALUE!</v>
       </c>
       <c r="R7" s="43">
-        <f ca="1">SUM( R7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + R6</f>
+        <f ca="1">SUM( R6                : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="S7" s="43" t="e">
-        <f ca="1">SUM( S7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + S6</f>
+        <f ca="1">SUM( S6                : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>#VALUE!</v>
       </c>
       <c r="T7" s="43" t="e">
-        <f ca="1">SUM( T7             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + T6</f>
+        <f ca="1">SUM( T6                : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>#VALUE!</v>
       </c>
       <c r="U7" s="44"/>
@@ -1187,11 +1187,11 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12">
-        <f ca="1">SUMIFS( J6           : INDIRECT(ADDRESS(ROW()-5,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-5,COLUMN())),"*СК*")</f>
+        <f ca="1">SUMIFS( J6             : INDIRECT(ADDRESS(ROW()-5,COLUMN()+5)), E6              : INDIRECT(ADDRESS(ROW()-5,COLUMN())),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F11" s="12">
-        <f ca="1">SUMIFS( L6            : INDIRECT(ADDRESS(ROW()-5,COLUMN()+6)), E6             : INDIRECT(ADDRESS(ROW()-5,COLUMN()-1)),"*СК*")</f>
+        <f ca="1">SUMIFS( L6              : INDIRECT(ADDRESS(ROW()-5,COLUMN()+6)), E6               : INDIRECT(ADDRESS(ROW()-5,COLUMN()-1)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="G11" s="19">
@@ -1217,11 +1217,11 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="12">
-        <f ca="1">SUMIFS( J6           : INDIRECT(ADDRESS(ROW()-6,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-6,COLUMN())),"*ПК*")</f>
+        <f ca="1">SUMIFS( J6             : INDIRECT(ADDRESS(ROW()-6,COLUMN()+5)), E6              : INDIRECT(ADDRESS(ROW()-6,COLUMN())),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F12" s="12">
-        <f ca="1">SUMIFS( L6             : INDIRECT(ADDRESS(ROW()-6,COLUMN()+6)), E6              : INDIRECT(ADDRESS(ROW()-6,COLUMN()-1)),"*ПК*")</f>
+        <f ca="1">SUMIFS( L6               : INDIRECT(ADDRESS(ROW()-6,COLUMN()+6)), E6                : INDIRECT(ADDRESS(ROW()-6,COLUMN()-1)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="G12" s="19">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12">
-        <f ca="1">SUMIFS( J6           : INDIRECT(ADDRESS(ROW()-7,COLUMN()+5)), E6            : INDIRECT(ADDRESS(ROW()-7,COLUMN())),"*ВК*")</f>
+        <f ca="1">SUMIFS( J6             : INDIRECT(ADDRESS(ROW()-7,COLUMN()+5)), E6              : INDIRECT(ADDRESS(ROW()-7,COLUMN())),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F13" s="12">
-        <f ca="1">SUMIFS( L6             : INDIRECT(ADDRESS(ROW()-7,COLUMN()+6)), E6              : INDIRECT(ADDRESS(ROW()-7,COLUMN()-1)),"*ВК*")</f>
+        <f ca="1">SUMIFS( L6               : INDIRECT(ADDRESS(ROW()-7,COLUMN()+6)), E6                : INDIRECT(ADDRESS(ROW()-7,COLUMN()-1)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="G13" s="19">
@@ -1326,11 +1326,11 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10">
-        <f ca="1">SUMIFS( I6          : INDIRECT(ADDRESS(ROW()-10,COLUMN()+4)), E6           : INDIRECT(ADDRESS(ROW()-10,COLUMN())),"*СК*")</f>
+        <f ca="1">SUMIFS( I6            : INDIRECT(ADDRESS(ROW()-10,COLUMN()+4)), E6             : INDIRECT(ADDRESS(ROW()-10,COLUMN())),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F16" s="10">
-        <f ca="1">SUMIFS( K6             : INDIRECT(ADDRESS(ROW()-10,COLUMN()+5)), E6              : INDIRECT(ADDRESS(ROW()-10,COLUMN()-1)),"*СК*")</f>
+        <f ca="1">SUMIFS( K6               : INDIRECT(ADDRESS(ROW()-10,COLUMN()+5)), E6                : INDIRECT(ADDRESS(ROW()-10,COLUMN()-1)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="G16" s="19">
@@ -1355,11 +1355,11 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10">
-        <f ca="1">SUMIFS( I6            : INDIRECT(ADDRESS(ROW()-11,COLUMN()+4)), E6             : INDIRECT(ADDRESS(ROW()-11,COLUMN())),"*ПК*")</f>
+        <f ca="1">SUMIFS( I6              : INDIRECT(ADDRESS(ROW()-11,COLUMN()+4)), E6               : INDIRECT(ADDRESS(ROW()-11,COLUMN())),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F17" s="10">
-        <f ca="1">SUMIFS( K6              : INDIRECT(ADDRESS(ROW()-11,COLUMN()+5)), E6               : INDIRECT(ADDRESS(ROW()-11,COLUMN()-1)),"*ПК*")</f>
+        <f ca="1">SUMIFS( K6                : INDIRECT(ADDRESS(ROW()-11,COLUMN()+5)), E6                 : INDIRECT(ADDRESS(ROW()-11,COLUMN()-1)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="G17" s="19">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10">
-        <f ca="1">SUMIFS( I6            : INDIRECT(ADDRESS(ROW()-12,COLUMN()+4)), E6             : INDIRECT(ADDRESS(ROW()-12,COLUMN())),"*ВК*")</f>
+        <f ca="1">SUMIFS( I6              : INDIRECT(ADDRESS(ROW()-12,COLUMN()+4)), E6               : INDIRECT(ADDRESS(ROW()-12,COLUMN())),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F18" s="10">
-        <f ca="1">SUMIFS( K6              : INDIRECT(ADDRESS(ROW()-12,COLUMN()+5)), E6               : INDIRECT(ADDRESS(ROW()-12,COLUMN()-1)),"*ВК*")</f>
+        <f ca="1">SUMIFS( K6                : INDIRECT(ADDRESS(ROW()-12,COLUMN()+5)), E6                 : INDIRECT(ADDRESS(ROW()-12,COLUMN()-1)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="G18" s="19">
@@ -1455,11 +1455,11 @@
   </sheetPr>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,23 +1619,23 @@
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
       <c r="I10" s="45">
-        <f ca="1">SUM( I10            : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + I9</f>
+        <f ca="1">SUM( I9               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="45">
-        <f ca="1">SUM( K10             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) ) + K9</f>
+        <f ca="1">SUM( K9                : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
       <c r="O10" s="56" t="e">
-        <f ca="1">SUM( O10             : INDIRECT(ADDRESS(ROW()-2,COLUMN())) ) + O9</f>
+        <f ca="1">SUM( O9               : INDIRECT(ADDRESS(ROW()-2,COLUMN())) )</f>
         <v>#VALUE!</v>
       </c>
       <c r="P10" s="56">
-        <f ca="1">SUM( P10            : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( P9               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="17">
-        <f ca="1">SUMIFS( K9                     : INDIRECT(ADDRESS(ROW()-4,COLUMN()+4)), E9                      : INDIRECT(ADDRESS(ROW()-4,COLUMN()-2)),"*СК*")</f>
+        <f ca="1">SUMIFS( K9                       : INDIRECT(ADDRESS(ROW()-4,COLUMN()+4)), E9                        : INDIRECT(ADDRESS(ROW()-4,COLUMN()-2)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F13" s="20">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="17">
-        <f ca="1">SUMIFS( K9                     : INDIRECT(ADDRESS(ROW()-5,COLUMN()+4)), E9                      : INDIRECT(ADDRESS(ROW()-5,COLUMN()-2)),"*ПК*")</f>
+        <f ca="1">SUMIFS( K9                       : INDIRECT(ADDRESS(ROW()-5,COLUMN()+4)), E9                        : INDIRECT(ADDRESS(ROW()-5,COLUMN()-2)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F14" s="20">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="17">
-        <f ca="1">SUMIFS( K9                     : INDIRECT(ADDRESS(ROW()-6,COLUMN()+4)), E9                      : INDIRECT(ADDRESS(ROW()-6,COLUMN()-2)),"*ВК*")</f>
+        <f ca="1">SUMIFS( K9                       : INDIRECT(ADDRESS(ROW()-6,COLUMN()+4)), E9                        : INDIRECT(ADDRESS(ROW()-6,COLUMN()-2)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F15" s="20">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="18">
-        <f ca="1">SUMIFS( I9                       : INDIRECT(ADDRESS(ROW()-9,COLUMN()+2)), E9                        : INDIRECT(ADDRESS(ROW()-9,COLUMN()-2)),"*СК*")</f>
+        <f ca="1">SUMIFS( I9                         : INDIRECT(ADDRESS(ROW()-9,COLUMN()+2)), E9                          : INDIRECT(ADDRESS(ROW()-9,COLUMN()-2)),"*СК*")</f>
         <v>0</v>
       </c>
       <c r="F18" s="20">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="18">
-        <f ca="1">SUMIFS( I9                         : INDIRECT(ADDRESS(ROW()-10,COLUMN()+2)), E9                          : INDIRECT(ADDRESS(ROW()-10,COLUMN()-2)),"*ПК*")</f>
+        <f ca="1">SUMIFS( I9                           : INDIRECT(ADDRESS(ROW()-10,COLUMN()+2)), E9                            : INDIRECT(ADDRESS(ROW()-10,COLUMN()-2)),"*ПК*")</f>
         <v>0</v>
       </c>
       <c r="F19" s="20">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="18">
-        <f ca="1">SUMIFS( I9                         : INDIRECT(ADDRESS(ROW()-11,COLUMN()+2)), E9                          : INDIRECT(ADDRESS(ROW()-11,COLUMN()-2)),"*ВК*")</f>
+        <f ca="1">SUMIFS( I9                           : INDIRECT(ADDRESS(ROW()-11,COLUMN()+2)), E9                            : INDIRECT(ADDRESS(ROW()-11,COLUMN()-2)),"*ВК*")</f>
         <v>0</v>
       </c>
       <c r="F20" s="20">
